--- a/Calculos.xlsx
+++ b/Calculos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/otobismac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/otobismac/Coverflow-JS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{DC817442-BD16-6745-A0B9-5F1BF1848519}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907BC653-0628-0E41-8E6D-084AB26F4884}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{F997655D-7DCE-784F-A080-90DDDFA7AF1C}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>prima vacacional</t>
   </si>
   <si>
-    <t>DIFF</t>
+    <t>DIF</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Calculos.xlsx
+++ b/Calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/otobismac/Coverflow-JS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907BC653-0628-0E41-8E6D-084AB26F4884}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEAC233-87ED-5346-BBA0-C0CDAAD49A6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{F997655D-7DCE-784F-A080-90DDDFA7AF1C}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>prima vacacional</t>
   </si>
   <si>
-    <t>DIF</t>
+    <t>DIFF</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Calculos.xlsx
+++ b/Calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/otobismac/Coverflow-JS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEAC233-87ED-5346-BBA0-C0CDAAD49A6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DE2F1F-B316-B148-B635-DEA5296FCC7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{F997655D-7DCE-784F-A080-90DDDFA7AF1C}"/>
+    <workbookView xWindow="6240" yWindow="2820" windowWidth="28040" windowHeight="17440" xr2:uid="{F997655D-7DCE-784F-A080-90DDDFA7AF1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>prima vacacional</t>
   </si>
   <si>
-    <t>DIFF</t>
+    <t>DIFERENCIA</t>
   </si>
 </sst>
 </file>
@@ -67,12 +67,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +413,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,7 +515,7 @@
         <f>SUM(I1,H2:H8)</f>
         <v>562400</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K9">
